--- a/doc/timeline.xlsx
+++ b/doc/timeline.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>year</t>
   </si>
@@ -55,12 +55,18 @@
     <t>女王大学</t>
   </si>
   <si>
+    <t>第一任妻子Justine Wilson</t>
+  </si>
+  <si>
     <t>X.com CEO 百万美元跑车 CNN</t>
   </si>
   <si>
     <t>我想离开互联网 做一些长远利益事情</t>
   </si>
   <si>
+    <t>与Justine Wilson的儿子内华达猝死，其他还有5个孩子</t>
+  </si>
+  <si>
     <t>成立spaceX</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>国际象棋神童哈萨比斯创办deepmind</t>
   </si>
   <si>
+    <t>与女演员Talulah Riley结婚</t>
+  </si>
+  <si>
     <t>第一批Model S，2000名员工</t>
   </si>
   <si>
@@ -112,6 +121,29 @@
     <t>用190万美元工资把AlyaSutzkwei从Google挖了过来，拉里佩奇直接生气</t>
   </si>
   <si>
+    <r>
+      <t>艾梅柏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>希尔德Amber Laura Heard杰克船长</t>
+    </r>
+  </si>
+  <si>
     <t>将特斯拉送往火星</t>
   </si>
   <si>
@@ -127,10 +159,79 @@
     <t>希望OpenAI并入特斯拉，但遭反对，决裂，挖来安德烈卡帕斯，2023年被挖回去</t>
   </si>
   <si>
+    <r>
+      <t>加拿大音乐家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Grimes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格莱姆斯AI笑话两个孩子</t>
+    </r>
+  </si>
+  <si>
     <t>星舰爆炸</t>
   </si>
   <si>
+    <r>
+      <t>娜塔莎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巴塞特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Natasha Bassett</t>
+    </r>
+  </si>
+  <si>
     <t>收购推特</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Shivon Zilis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双胞胎</t>
+    </r>
   </si>
   <si>
     <t>星舰项目入轨</t>
@@ -146,13 +247,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -619,138 +732,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1110,28 +1229,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1999</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1139,7 +1258,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1165,16 +1284,13 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1182,7 +1298,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2012</v>
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1190,7 +1309,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1198,7 +1317,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1206,7 +1325,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1214,7 +1333,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1222,10 +1341,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2015</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1233,105 +1349,164 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
+        <v>2014</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
         <v>2015</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2015</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2020</v>
-      </c>
-      <c r="C24" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>2021</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>2024</v>
       </c>
-      <c r="B27">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
+      <c r="C34" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27">
-    <sortState ref="A2:E27">
+  <autoFilter ref="A1:E34">
+    <sortState ref="A2:E34">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
